--- a/Documentacion/Cronograma Proyecto -Diagrama de GANTT.xlsx
+++ b/Documentacion/Cronograma Proyecto -Diagrama de GANTT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1494\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0605063B-9616-4116-9028-90C46BC16C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7725184D-68DD-4CE7-B005-8C1E8CB9E024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" PP GanttChart" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="220">
   <si>
     <t>Gestión del Proyecto VIDEOTEC</t>
   </si>
@@ -705,6 +705,174 @@
       </rPr>
       <t>Analizar si se requiere el uso de otras herramientas para la copia de datos, además del Bulk Copy, para el manejo del Data WareHouse.</t>
     </r>
+  </si>
+  <si>
+    <t>PRP6.1</t>
+  </si>
+  <si>
+    <t>Se realizaron los sp's insert, update, delete, select, select_all para las tablas de: socio, empresa, pelicula,cinta,detalle_prestamo y carritocompra.</t>
+  </si>
+  <si>
+    <t>16/11/202</t>
+  </si>
+  <si>
+    <t>PRP6.2</t>
+  </si>
+  <si>
+    <t>PRP6.3</t>
+  </si>
+  <si>
+    <t>Se repartieron los sp a cada miembro del equipo de trabajo.</t>
+  </si>
+  <si>
+    <t>Villegas Mora Aarón.</t>
+  </si>
+  <si>
+    <t>Se crearon  los sp's insert, update, delete, select, select_all para las tablas de: subtitulos_cinta, pelicula_genero, pelicula_autor, pelicula_productora, idioma.</t>
+  </si>
+  <si>
+    <t>Chavarria Padilla Krisly</t>
+  </si>
+  <si>
+    <t>Se crearon  los sp's insert, update, delete, select, select_all para las tablas de: productora, actor, genero_pelicula, director, prestamo.</t>
+  </si>
+  <si>
+    <t>PRP6.4</t>
+  </si>
+  <si>
+    <t>PRP6.5</t>
+  </si>
+  <si>
+    <t>Se crearon  los sp's insert, update, delete, select, select_all para las tablas de: usuario, rol, pelicula_director, socio_director, socio_genero.</t>
+  </si>
+  <si>
+    <t>Bonilla González Fiorella.</t>
+  </si>
+  <si>
+    <t>PRP6.6</t>
+  </si>
+  <si>
+    <t>Se crearon  los sp's insert, update, delete, select, select_all para las tablas de: devolucion_cinta, registro_prestamo,lista_espera, llamada, socio_actor.</t>
+  </si>
+  <si>
+    <t>Moraga Gutiérrez Glenda Sofia</t>
+  </si>
+  <si>
+    <t>PRP6.7</t>
+  </si>
+  <si>
+    <t>Mejías  González  Fauricio Andrés</t>
+  </si>
+  <si>
+    <t>PRP11.1</t>
+  </si>
+  <si>
+    <t>Se repartieron los modulos a cada integrante del equipo obteneniendo 2 por cada uno.</t>
+  </si>
+  <si>
+    <t>PRP11.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se creo el modulo de empresa. </t>
+  </si>
+  <si>
+    <t>Bonilla González Fiorella</t>
+  </si>
+  <si>
+    <t>Villegas Mora Aarón. 
+Bonilla González Fiorella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se creo el modulo de director. </t>
+  </si>
+  <si>
+    <t>PRP11.3</t>
+  </si>
+  <si>
+    <t>PRP11.4</t>
+  </si>
+  <si>
+    <t>Se creo el modulo de socio.</t>
+  </si>
+  <si>
+    <t>PRP11.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villegas Mora Aaron </t>
+  </si>
+  <si>
+    <t>Se realizo la creacion del login del proyecto en MVC.</t>
+  </si>
+  <si>
+    <t>Se crearon el sp_socios_por_genero, sp_socios_por_edad, sp_num_peliculas_por_genero, sp_tiempo_devolucion_cinta, sp_peliculas_en_espera, view_user_logins</t>
+  </si>
+  <si>
+    <t>Se empezo a crear los triggers: tr_calcular_precio_total_02, tr_calcular_precio_total_01, tr_actualizar_estado_cinta_disponible, tr_actualizar_estado_cinta, tr_validar_disponibilidad_pelicula
+,tr_recalcular_stock_cintas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mejías  González  Fauricio Andrés.  </t>
+  </si>
+  <si>
+    <t>PRP11.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se programo el modulo de rol y usuario </t>
+  </si>
+  <si>
+    <t>PRP11.7</t>
+  </si>
+  <si>
+    <t>Se creo el modulo de actor</t>
+  </si>
+  <si>
+    <t>PRP11.8</t>
+  </si>
+  <si>
+    <t>Se debe realizar el modulo de subtitulos_cinta, pelicula_genero, pelicula_autor, pelicula_productora, idioma.</t>
+  </si>
+  <si>
+    <t>Se programaron los procedimientos como: sp_preferencias_socio_generos, sp_preferencias_socio_actores, sp_preferencias_socio_directores, sp_actores_principales_pelicula, sp_actores_secundarios_pelicula, sp_actores_pelicula, sp_prestamo_factura, sp_plazo_prestamo</t>
+  </si>
+  <si>
+    <t>PRP6.8</t>
+  </si>
+  <si>
+    <t>PRP7.1</t>
+  </si>
+  <si>
+    <t>PRP7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creacion de triggers bitacora para registrar las acciones: insertar, actualizar y eliminar en las tablas</t>
+  </si>
+  <si>
+    <t>PRP13.1</t>
+  </si>
+  <si>
+    <t>Creacion de la vista de: view_tbl_socio, fnt_edad</t>
+  </si>
+  <si>
+    <t>PRP13.2</t>
+  </si>
+  <si>
+    <t>Creacion de la vista de: view_user_logins</t>
+  </si>
+  <si>
+    <t>PRP4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se creo la base de datos de las tablas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creacion de la vista de: bistacora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mejías  González  Fauricio Andrés.                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mejías  González  Fauricio Andrés.                                          
+</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1275,7 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1228,15 +1396,13 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1330,7 +1496,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Énfasis3" xfId="3" builtinId="38"/>
@@ -1560,8 +1725,8 @@
   </sheetPr>
   <dimension ref="A1:BT15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BT1" sqref="BT1"/>
       <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
@@ -3094,10 +3259,10 @@
   </sheetPr>
   <dimension ref="A1:BT16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BT1" sqref="BT1"/>
-      <selection pane="bottomLeft" activeCell="AI8" sqref="AI8"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3929,7 +4094,7 @@
         <v>44846</v>
       </c>
       <c r="G9" s="15">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
@@ -4013,7 +4178,7 @@
       <c r="C10" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="14">
@@ -4108,7 +4273,7 @@
       <c r="C11" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="49" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="14">
@@ -4118,7 +4283,7 @@
         <v>44853</v>
       </c>
       <c r="G11" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
@@ -4213,7 +4378,7 @@
       <c r="C12" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="49" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="14">
@@ -4318,7 +4483,7 @@
       <c r="C13" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="49" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="14">
@@ -4328,7 +4493,7 @@
         <v>44853</v>
       </c>
       <c r="G13" s="15">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
@@ -4405,7 +4570,7 @@
       <c r="C14" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="49" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="14">
@@ -4492,7 +4657,7 @@
       <c r="C15" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="49" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="14">
@@ -4652,7 +4817,7 @@
   <dimension ref="A1:BT27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BT1" sqref="BT1"/>
       <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
@@ -7345,12 +7510,12 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:BT25"/>
+  <dimension ref="A1:BT47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BT1" sqref="BT1"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8074,7 +8239,7 @@
         <v>44853</v>
       </c>
       <c r="F8" s="28">
-        <v>44516</v>
+        <v>44881</v>
       </c>
       <c r="G8" s="15">
         <v>1</v>
@@ -8174,7 +8339,7 @@
         <v>44853</v>
       </c>
       <c r="F9" s="28">
-        <v>44516</v>
+        <v>44881</v>
       </c>
       <c r="G9" s="15">
         <v>1</v>
@@ -8265,10 +8430,10 @@
         <v>44853</v>
       </c>
       <c r="F10" s="28">
-        <v>44516</v>
+        <v>44881</v>
       </c>
       <c r="G10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
@@ -8356,10 +8521,10 @@
         <v>44853</v>
       </c>
       <c r="F11" s="28">
-        <v>44516</v>
+        <v>44881</v>
       </c>
       <c r="G11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
@@ -8433,24 +8598,24 @@
       <c r="BS11" s="25"/>
       <c r="BT11" s="25"/>
     </row>
-    <row r="12" spans="1:72" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:72" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="E12" s="14">
-        <v>44853</v>
+        <v>44858</v>
       </c>
       <c r="F12" s="28">
-        <v>44516</v>
+        <v>44864</v>
       </c>
       <c r="G12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
@@ -8502,36 +8667,28 @@
       <c r="BC12" s="17"/>
       <c r="BD12" s="17"/>
       <c r="BE12" s="17"/>
-      <c r="BF12" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="BF12" s="17"/>
       <c r="BG12" s="17"/>
       <c r="BH12" s="17"/>
-      <c r="BI12" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="BI12" s="17"/>
       <c r="BJ12" s="17"/>
       <c r="BK12" s="16"/>
       <c r="BL12" s="16"/>
       <c r="BM12" s="16"/>
-      <c r="BN12" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BN12" s="16"/>
       <c r="BO12" s="16"/>
       <c r="BP12" s="25"/>
       <c r="BQ12" s="25"/>
       <c r="BR12" s="25"/>
-      <c r="BS12" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="BS12" s="25"/>
       <c r="BT12" s="25"/>
     </row>
     <row r="13" spans="1:72" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>39</v>
@@ -8540,10 +8697,10 @@
         <v>44853</v>
       </c>
       <c r="F13" s="28">
-        <v>44516</v>
+        <v>44881</v>
       </c>
       <c r="G13" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
@@ -8595,24 +8752,22 @@
       <c r="BC13" s="17"/>
       <c r="BD13" s="17"/>
       <c r="BE13" s="17"/>
-      <c r="BF13" s="17"/>
-      <c r="BG13" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="BF13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BG13" s="17"/>
       <c r="BH13" s="17"/>
-      <c r="BI13" s="17"/>
-      <c r="BJ13" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="BI13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ13" s="17"/>
       <c r="BK13" s="16"/>
       <c r="BL13" s="16"/>
-      <c r="BM13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="BN13" s="16"/>
-      <c r="BO13" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BM13" s="16"/>
+      <c r="BN13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BO13" s="16"/>
       <c r="BP13" s="25"/>
       <c r="BQ13" s="25"/>
       <c r="BR13" s="25"/>
@@ -8621,12 +8776,12 @@
       </c>
       <c r="BT13" s="25"/>
     </row>
-    <row r="14" spans="1:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:72" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>39</v>
@@ -8635,10 +8790,10 @@
         <v>44853</v>
       </c>
       <c r="F14" s="28">
-        <v>44516</v>
+        <v>44881</v>
       </c>
       <c r="G14" s="15">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
@@ -8691,45 +8846,49 @@
       <c r="BD14" s="17"/>
       <c r="BE14" s="17"/>
       <c r="BF14" s="17"/>
-      <c r="BG14" s="17"/>
-      <c r="BH14" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="BG14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BH14" s="17"/>
       <c r="BI14" s="17"/>
-      <c r="BJ14" s="17"/>
-      <c r="BK14" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BJ14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BK14" s="16"/>
       <c r="BL14" s="16"/>
-      <c r="BM14" s="16"/>
+      <c r="BM14" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="BN14" s="16"/>
-      <c r="BO14" s="16"/>
+      <c r="BO14" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="BP14" s="25"/>
-      <c r="BQ14" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="BQ14" s="25"/>
       <c r="BR14" s="25"/>
-      <c r="BS14" s="25"/>
-      <c r="BT14" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="BS14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="BT14" s="25"/>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:72" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>165</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="E15" s="14">
-        <v>44853</v>
+        <v>44858</v>
       </c>
       <c r="F15" s="28">
-        <v>44516</v>
+        <v>44858</v>
       </c>
       <c r="G15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
@@ -8783,44 +8942,38 @@
       <c r="BE15" s="17"/>
       <c r="BF15" s="17"/>
       <c r="BG15" s="17"/>
-      <c r="BH15" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="BH15" s="17"/>
       <c r="BI15" s="17"/>
       <c r="BJ15" s="17"/>
       <c r="BK15" s="16"/>
       <c r="BL15" s="16"/>
-      <c r="BM15" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BM15" s="16"/>
       <c r="BN15" s="16"/>
       <c r="BO15" s="16"/>
       <c r="BP15" s="25"/>
       <c r="BQ15" s="25"/>
-      <c r="BR15" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="BR15" s="25"/>
       <c r="BS15" s="25"/>
       <c r="BT15" s="25"/>
     </row>
-    <row r="16" spans="1:72" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:72" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="E16" s="14">
-        <v>44853</v>
+        <v>44863</v>
       </c>
       <c r="F16" s="28">
-        <v>44516</v>
+        <v>44864</v>
       </c>
       <c r="G16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -8873,49 +9026,39 @@
       <c r="BD16" s="17"/>
       <c r="BE16" s="17"/>
       <c r="BF16" s="17"/>
-      <c r="BG16" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="BG16" s="17"/>
       <c r="BH16" s="17"/>
       <c r="BI16" s="17"/>
       <c r="BJ16" s="17"/>
       <c r="BK16" s="16"/>
-      <c r="BL16" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BL16" s="16"/>
       <c r="BM16" s="16"/>
-      <c r="BN16" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BN16" s="16"/>
       <c r="BO16" s="16"/>
-      <c r="BP16" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="BP16" s="25"/>
       <c r="BQ16" s="25"/>
-      <c r="BR16" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="BR16" s="25"/>
       <c r="BS16" s="25"/>
       <c r="BT16" s="25"/>
     </row>
-    <row r="17" spans="2:72" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:72" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="E17" s="14">
-        <v>44853</v>
+        <v>44864</v>
       </c>
       <c r="F17" s="28">
-        <v>44516</v>
+        <v>44864</v>
       </c>
       <c r="G17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -8970,45 +9113,37 @@
       <c r="BF17" s="17"/>
       <c r="BG17" s="17"/>
       <c r="BH17" s="17"/>
-      <c r="BI17" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="BI17" s="17"/>
       <c r="BJ17" s="17"/>
       <c r="BK17" s="16"/>
-      <c r="BL17" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BL17" s="16"/>
       <c r="BM17" s="16"/>
       <c r="BN17" s="16"/>
-      <c r="BO17" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BO17" s="16"/>
       <c r="BP17" s="25"/>
       <c r="BQ17" s="25"/>
       <c r="BR17" s="25"/>
-      <c r="BS17" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="BS17" s="25"/>
       <c r="BT17" s="25"/>
     </row>
-    <row r="18" spans="2:72" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:72" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="E18" s="14">
-        <v>44853</v>
+        <v>44866</v>
       </c>
       <c r="F18" s="28">
-        <v>44516</v>
+        <v>44866</v>
       </c>
       <c r="G18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
@@ -9063,45 +9198,37 @@
       <c r="BF18" s="17"/>
       <c r="BG18" s="17"/>
       <c r="BH18" s="17"/>
-      <c r="BI18" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="BI18" s="17"/>
       <c r="BJ18" s="17"/>
       <c r="BK18" s="16"/>
-      <c r="BL18" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BL18" s="16"/>
       <c r="BM18" s="16"/>
-      <c r="BN18" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BN18" s="16"/>
       <c r="BO18" s="16"/>
       <c r="BP18" s="25"/>
-      <c r="BQ18" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="BQ18" s="25"/>
       <c r="BR18" s="25"/>
       <c r="BS18" s="25"/>
       <c r="BT18" s="25"/>
     </row>
-    <row r="19" spans="2:72" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:72" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="E19" s="14">
-        <v>44853</v>
+        <v>44865</v>
       </c>
       <c r="F19" s="28">
-        <v>44516</v>
+        <v>44865</v>
       </c>
       <c r="G19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
@@ -9154,47 +9281,39 @@
       <c r="BD19" s="17"/>
       <c r="BE19" s="17"/>
       <c r="BF19" s="17"/>
-      <c r="BG19" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="BG19" s="17"/>
       <c r="BH19" s="17"/>
       <c r="BI19" s="17"/>
       <c r="BJ19" s="17"/>
       <c r="BK19" s="16"/>
-      <c r="BL19" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BL19" s="16"/>
       <c r="BM19" s="16"/>
       <c r="BN19" s="16"/>
-      <c r="BO19" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BO19" s="16"/>
       <c r="BP19" s="25"/>
       <c r="BQ19" s="25"/>
-      <c r="BR19" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="BR19" s="25"/>
       <c r="BS19" s="25"/>
       <c r="BT19" s="25"/>
     </row>
-    <row r="20" spans="2:72" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:72" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="E20" s="14">
-        <v>44853</v>
+        <v>44867</v>
       </c>
       <c r="F20" s="28">
-        <v>44516</v>
+        <v>44867</v>
       </c>
       <c r="G20" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
@@ -9247,49 +9366,39 @@
       <c r="BD20" s="17"/>
       <c r="BE20" s="17"/>
       <c r="BF20" s="17"/>
-      <c r="BG20" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="BG20" s="17"/>
       <c r="BH20" s="17"/>
       <c r="BI20" s="17"/>
-      <c r="BJ20" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="BJ20" s="17"/>
       <c r="BK20" s="16"/>
       <c r="BL20" s="16"/>
-      <c r="BM20" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BM20" s="16"/>
       <c r="BN20" s="16"/>
-      <c r="BO20" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BO20" s="16"/>
       <c r="BP20" s="25"/>
       <c r="BQ20" s="25"/>
-      <c r="BR20" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="BR20" s="25"/>
       <c r="BS20" s="25"/>
       <c r="BT20" s="25"/>
     </row>
-    <row r="21" spans="2:72" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:72" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="E21" s="14">
-        <v>44853</v>
+        <v>44870</v>
       </c>
       <c r="F21" s="28">
-        <v>44516</v>
+        <v>44871</v>
       </c>
       <c r="G21" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
@@ -9343,48 +9452,38 @@
       <c r="BE21" s="17"/>
       <c r="BF21" s="17"/>
       <c r="BG21" s="17"/>
-      <c r="BH21" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="BH21" s="17"/>
       <c r="BI21" s="17"/>
       <c r="BJ21" s="17"/>
-      <c r="BK21" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BK21" s="16"/>
       <c r="BL21" s="16"/>
-      <c r="BM21" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BM21" s="16"/>
       <c r="BN21" s="16"/>
       <c r="BO21" s="16"/>
       <c r="BP21" s="25"/>
-      <c r="BQ21" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="BQ21" s="25"/>
       <c r="BR21" s="25"/>
-      <c r="BS21" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="BS21" s="25"/>
       <c r="BT21" s="25"/>
     </row>
-    <row r="22" spans="2:72" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:72" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="E22" s="14">
-        <v>44853</v>
+        <v>44878</v>
       </c>
       <c r="F22" s="28">
-        <v>44516</v>
+        <v>44880</v>
       </c>
       <c r="G22" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
@@ -9439,35 +9538,25 @@
       <c r="BF22" s="17"/>
       <c r="BG22" s="17"/>
       <c r="BH22" s="17"/>
-      <c r="BI22" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="BI22" s="17"/>
       <c r="BJ22" s="17"/>
-      <c r="BK22" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BK22" s="16"/>
       <c r="BL22" s="16"/>
       <c r="BM22" s="16"/>
-      <c r="BN22" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BN22" s="16"/>
       <c r="BO22" s="16"/>
-      <c r="BP22" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="BP22" s="25"/>
       <c r="BQ22" s="25"/>
       <c r="BR22" s="25"/>
-      <c r="BS22" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="BS22" s="25"/>
       <c r="BT22" s="25"/>
     </row>
-    <row r="23" spans="2:72" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:72" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>39</v>
@@ -9476,10 +9565,10 @@
         <v>44853</v>
       </c>
       <c r="F23" s="28">
-        <v>44516</v>
+        <v>44881</v>
       </c>
       <c r="G23" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
@@ -9555,24 +9644,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:72" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:72" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="E24" s="14">
-        <v>44853</v>
+        <v>44863</v>
       </c>
       <c r="F24" s="28">
-        <v>44516</v>
+        <v>44863</v>
       </c>
       <c r="G24" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
@@ -9628,44 +9717,36 @@
       <c r="BG24" s="17"/>
       <c r="BH24" s="17"/>
       <c r="BI24" s="17"/>
-      <c r="BJ24" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="BJ24" s="17"/>
       <c r="BK24" s="16"/>
-      <c r="BL24" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BL24" s="16"/>
       <c r="BM24" s="16"/>
-      <c r="BN24" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BN24" s="16"/>
       <c r="BO24" s="16"/>
       <c r="BP24" s="25"/>
       <c r="BQ24" s="25"/>
       <c r="BR24" s="25"/>
       <c r="BS24" s="25"/>
-      <c r="BT24" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="BT24" s="25"/>
     </row>
-    <row r="25" spans="2:72" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:72" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="E25" s="14">
-        <v>44853</v>
+        <v>44869</v>
       </c>
       <c r="F25" s="28">
-        <v>44516</v>
+        <v>44875</v>
       </c>
       <c r="G25" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
@@ -9720,26 +9801,1966 @@
       <c r="BF25" s="17"/>
       <c r="BG25" s="17"/>
       <c r="BH25" s="17"/>
-      <c r="BI25" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="BI25" s="17"/>
       <c r="BJ25" s="17"/>
       <c r="BK25" s="16"/>
       <c r="BL25" s="16"/>
-      <c r="BM25" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BM25" s="16"/>
       <c r="BN25" s="16"/>
-      <c r="BO25" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="BO25" s="16"/>
       <c r="BP25" s="25"/>
       <c r="BQ25" s="25"/>
-      <c r="BR25" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="BR25" s="25"/>
       <c r="BS25" s="25"/>
-      <c r="BT25" s="25" t="s">
+      <c r="BT25" s="25"/>
+    </row>
+    <row r="26" spans="2:72" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="14">
+        <v>44853</v>
+      </c>
+      <c r="F26" s="28">
+        <v>44881</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
+      <c r="AQ26" s="17"/>
+      <c r="AR26" s="17"/>
+      <c r="AS26" s="17"/>
+      <c r="AT26" s="17"/>
+      <c r="AU26" s="17"/>
+      <c r="AV26" s="17"/>
+      <c r="AW26" s="17"/>
+      <c r="AX26" s="17"/>
+      <c r="AY26" s="17"/>
+      <c r="AZ26" s="17"/>
+      <c r="BA26" s="17"/>
+      <c r="BB26" s="17"/>
+      <c r="BC26" s="17"/>
+      <c r="BD26" s="17"/>
+      <c r="BE26" s="17"/>
+      <c r="BF26" s="17"/>
+      <c r="BG26" s="17"/>
+      <c r="BH26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI26" s="17"/>
+      <c r="BJ26" s="17"/>
+      <c r="BK26" s="16"/>
+      <c r="BL26" s="16"/>
+      <c r="BM26" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BN26" s="16"/>
+      <c r="BO26" s="16"/>
+      <c r="BP26" s="25"/>
+      <c r="BQ26" s="25"/>
+      <c r="BR26" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="BS26" s="25"/>
+      <c r="BT26" s="25"/>
+    </row>
+    <row r="27" spans="2:72" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="14">
+        <v>44853</v>
+      </c>
+      <c r="F27" s="28">
+        <v>44881</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="17"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="17"/>
+      <c r="AO27" s="17"/>
+      <c r="AP27" s="17"/>
+      <c r="AQ27" s="17"/>
+      <c r="AR27" s="17"/>
+      <c r="AS27" s="17"/>
+      <c r="AT27" s="17"/>
+      <c r="AU27" s="17"/>
+      <c r="AV27" s="17"/>
+      <c r="AW27" s="17"/>
+      <c r="AX27" s="17"/>
+      <c r="AY27" s="17"/>
+      <c r="AZ27" s="17"/>
+      <c r="BA27" s="17"/>
+      <c r="BB27" s="17"/>
+      <c r="BC27" s="17"/>
+      <c r="BD27" s="17"/>
+      <c r="BE27" s="17"/>
+      <c r="BF27" s="17"/>
+      <c r="BG27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BH27" s="17"/>
+      <c r="BI27" s="17"/>
+      <c r="BJ27" s="17"/>
+      <c r="BK27" s="16"/>
+      <c r="BL27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BM27" s="16"/>
+      <c r="BN27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BO27" s="16"/>
+      <c r="BP27" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ27" s="25"/>
+      <c r="BR27" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="BS27" s="25"/>
+      <c r="BT27" s="25"/>
+    </row>
+    <row r="28" spans="2:72" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="14">
+        <v>44861</v>
+      </c>
+      <c r="F28" s="28">
+        <v>44861</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="17"/>
+      <c r="AQ28" s="17"/>
+      <c r="AR28" s="17"/>
+      <c r="AS28" s="17"/>
+      <c r="AT28" s="17"/>
+      <c r="AU28" s="17"/>
+      <c r="AV28" s="17"/>
+      <c r="AW28" s="17"/>
+      <c r="AX28" s="17"/>
+      <c r="AY28" s="17"/>
+      <c r="AZ28" s="17"/>
+      <c r="BA28" s="17"/>
+      <c r="BB28" s="17"/>
+      <c r="BC28" s="17"/>
+      <c r="BD28" s="17"/>
+      <c r="BE28" s="17"/>
+      <c r="BF28" s="17"/>
+      <c r="BG28" s="17"/>
+      <c r="BH28" s="17"/>
+      <c r="BI28" s="17"/>
+      <c r="BJ28" s="17"/>
+      <c r="BK28" s="16"/>
+      <c r="BL28" s="16"/>
+      <c r="BM28" s="16"/>
+      <c r="BN28" s="16"/>
+      <c r="BO28" s="16"/>
+      <c r="BP28" s="25"/>
+      <c r="BQ28" s="25"/>
+      <c r="BR28" s="25"/>
+      <c r="BS28" s="25"/>
+      <c r="BT28" s="25"/>
+    </row>
+    <row r="29" spans="2:72" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="14">
+        <v>44862</v>
+      </c>
+      <c r="F29" s="28">
+        <v>44862</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="17"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="17"/>
+      <c r="AO29" s="17"/>
+      <c r="AP29" s="17"/>
+      <c r="AQ29" s="17"/>
+      <c r="AR29" s="17"/>
+      <c r="AS29" s="17"/>
+      <c r="AT29" s="17"/>
+      <c r="AU29" s="17"/>
+      <c r="AV29" s="17"/>
+      <c r="AW29" s="17"/>
+      <c r="AX29" s="17"/>
+      <c r="AY29" s="17"/>
+      <c r="AZ29" s="17"/>
+      <c r="BA29" s="17"/>
+      <c r="BB29" s="17"/>
+      <c r="BC29" s="17"/>
+      <c r="BD29" s="17"/>
+      <c r="BE29" s="17"/>
+      <c r="BF29" s="17"/>
+      <c r="BG29" s="17"/>
+      <c r="BH29" s="17"/>
+      <c r="BI29" s="17"/>
+      <c r="BJ29" s="17"/>
+      <c r="BK29" s="16"/>
+      <c r="BL29" s="16"/>
+      <c r="BM29" s="16"/>
+      <c r="BN29" s="16"/>
+      <c r="BO29" s="16"/>
+      <c r="BP29" s="25"/>
+      <c r="BQ29" s="25"/>
+      <c r="BR29" s="25"/>
+      <c r="BS29" s="25"/>
+      <c r="BT29" s="25"/>
+    </row>
+    <row r="30" spans="2:72" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="14">
+        <v>44865</v>
+      </c>
+      <c r="F30" s="28">
+        <v>44867</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="17"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="17"/>
+      <c r="AO30" s="17"/>
+      <c r="AP30" s="17"/>
+      <c r="AQ30" s="17"/>
+      <c r="AR30" s="17"/>
+      <c r="AS30" s="17"/>
+      <c r="AT30" s="17"/>
+      <c r="AU30" s="17"/>
+      <c r="AV30" s="17"/>
+      <c r="AW30" s="17"/>
+      <c r="AX30" s="17"/>
+      <c r="AY30" s="17"/>
+      <c r="AZ30" s="17"/>
+      <c r="BA30" s="17"/>
+      <c r="BB30" s="17"/>
+      <c r="BC30" s="17"/>
+      <c r="BD30" s="17"/>
+      <c r="BE30" s="17"/>
+      <c r="BF30" s="17"/>
+      <c r="BG30" s="17"/>
+      <c r="BH30" s="17"/>
+      <c r="BI30" s="17"/>
+      <c r="BJ30" s="17"/>
+      <c r="BK30" s="16"/>
+      <c r="BL30" s="16"/>
+      <c r="BM30" s="16"/>
+      <c r="BN30" s="16"/>
+      <c r="BO30" s="16"/>
+      <c r="BP30" s="25"/>
+      <c r="BQ30" s="25"/>
+      <c r="BR30" s="25"/>
+      <c r="BS30" s="25"/>
+      <c r="BT30" s="25"/>
+    </row>
+    <row r="31" spans="2:72" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="14">
+        <v>44865</v>
+      </c>
+      <c r="F31" s="28">
+        <v>44867</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="17"/>
+      <c r="AM31" s="17"/>
+      <c r="AN31" s="17"/>
+      <c r="AO31" s="17"/>
+      <c r="AP31" s="17"/>
+      <c r="AQ31" s="17"/>
+      <c r="AR31" s="17"/>
+      <c r="AS31" s="17"/>
+      <c r="AT31" s="17"/>
+      <c r="AU31" s="17"/>
+      <c r="AV31" s="17"/>
+      <c r="AW31" s="17"/>
+      <c r="AX31" s="17"/>
+      <c r="AY31" s="17"/>
+      <c r="AZ31" s="17"/>
+      <c r="BA31" s="17"/>
+      <c r="BB31" s="17"/>
+      <c r="BC31" s="17"/>
+      <c r="BD31" s="17"/>
+      <c r="BE31" s="17"/>
+      <c r="BF31" s="17"/>
+      <c r="BG31" s="17"/>
+      <c r="BH31" s="17"/>
+      <c r="BI31" s="17"/>
+      <c r="BJ31" s="17"/>
+      <c r="BK31" s="16"/>
+      <c r="BL31" s="16"/>
+      <c r="BM31" s="16"/>
+      <c r="BN31" s="16"/>
+      <c r="BO31" s="16"/>
+      <c r="BP31" s="25"/>
+      <c r="BQ31" s="25"/>
+      <c r="BR31" s="25"/>
+      <c r="BS31" s="25"/>
+      <c r="BT31" s="25"/>
+    </row>
+    <row r="32" spans="2:72" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="14">
+        <v>44868</v>
+      </c>
+      <c r="F32" s="28">
+        <v>44870</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="17"/>
+      <c r="AO32" s="17"/>
+      <c r="AP32" s="17"/>
+      <c r="AQ32" s="17"/>
+      <c r="AR32" s="17"/>
+      <c r="AS32" s="17"/>
+      <c r="AT32" s="17"/>
+      <c r="AU32" s="17"/>
+      <c r="AV32" s="17"/>
+      <c r="AW32" s="17"/>
+      <c r="AX32" s="17"/>
+      <c r="AY32" s="17"/>
+      <c r="AZ32" s="17"/>
+      <c r="BA32" s="17"/>
+      <c r="BB32" s="17"/>
+      <c r="BC32" s="17"/>
+      <c r="BD32" s="17"/>
+      <c r="BE32" s="17"/>
+      <c r="BF32" s="17"/>
+      <c r="BG32" s="17"/>
+      <c r="BH32" s="17"/>
+      <c r="BI32" s="17"/>
+      <c r="BJ32" s="17"/>
+      <c r="BK32" s="16"/>
+      <c r="BL32" s="16"/>
+      <c r="BM32" s="16"/>
+      <c r="BN32" s="16"/>
+      <c r="BO32" s="16"/>
+      <c r="BP32" s="25"/>
+      <c r="BQ32" s="25"/>
+      <c r="BR32" s="25"/>
+      <c r="BS32" s="25"/>
+      <c r="BT32" s="25"/>
+    </row>
+    <row r="33" spans="2:72" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="14">
+        <v>44871</v>
+      </c>
+      <c r="F33" s="28">
+        <v>44873</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="17"/>
+      <c r="AO33" s="17"/>
+      <c r="AP33" s="17"/>
+      <c r="AQ33" s="17"/>
+      <c r="AR33" s="17"/>
+      <c r="AS33" s="17"/>
+      <c r="AT33" s="17"/>
+      <c r="AU33" s="17"/>
+      <c r="AV33" s="17"/>
+      <c r="AW33" s="17"/>
+      <c r="AX33" s="17"/>
+      <c r="AY33" s="17"/>
+      <c r="AZ33" s="17"/>
+      <c r="BA33" s="17"/>
+      <c r="BB33" s="17"/>
+      <c r="BC33" s="17"/>
+      <c r="BD33" s="17"/>
+      <c r="BE33" s="17"/>
+      <c r="BF33" s="17"/>
+      <c r="BG33" s="17"/>
+      <c r="BH33" s="17"/>
+      <c r="BI33" s="17"/>
+      <c r="BJ33" s="17"/>
+      <c r="BK33" s="16"/>
+      <c r="BL33" s="16"/>
+      <c r="BM33" s="16"/>
+      <c r="BN33" s="16"/>
+      <c r="BO33" s="16"/>
+      <c r="BP33" s="25"/>
+      <c r="BQ33" s="25"/>
+      <c r="BR33" s="25"/>
+      <c r="BS33" s="25"/>
+      <c r="BT33" s="25"/>
+    </row>
+    <row r="34" spans="2:72" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="14">
+        <v>44871</v>
+      </c>
+      <c r="F34" s="28">
+        <v>44873</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="17"/>
+      <c r="AP34" s="17"/>
+      <c r="AQ34" s="17"/>
+      <c r="AR34" s="17"/>
+      <c r="AS34" s="17"/>
+      <c r="AT34" s="17"/>
+      <c r="AU34" s="17"/>
+      <c r="AV34" s="17"/>
+      <c r="AW34" s="17"/>
+      <c r="AX34" s="17"/>
+      <c r="AY34" s="17"/>
+      <c r="AZ34" s="17"/>
+      <c r="BA34" s="17"/>
+      <c r="BB34" s="17"/>
+      <c r="BC34" s="17"/>
+      <c r="BD34" s="17"/>
+      <c r="BE34" s="17"/>
+      <c r="BF34" s="17"/>
+      <c r="BG34" s="17"/>
+      <c r="BH34" s="17"/>
+      <c r="BI34" s="17"/>
+      <c r="BJ34" s="17"/>
+      <c r="BK34" s="16"/>
+      <c r="BL34" s="16"/>
+      <c r="BM34" s="16"/>
+      <c r="BN34" s="16"/>
+      <c r="BO34" s="16"/>
+      <c r="BP34" s="25"/>
+      <c r="BQ34" s="25"/>
+      <c r="BR34" s="25"/>
+      <c r="BS34" s="25"/>
+      <c r="BT34" s="25"/>
+    </row>
+    <row r="35" spans="2:72" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="14">
+        <v>44871</v>
+      </c>
+      <c r="F35" s="28">
+        <v>44878</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="17"/>
+      <c r="AN35" s="17"/>
+      <c r="AO35" s="17"/>
+      <c r="AP35" s="17"/>
+      <c r="AQ35" s="17"/>
+      <c r="AR35" s="17"/>
+      <c r="AS35" s="17"/>
+      <c r="AT35" s="17"/>
+      <c r="AU35" s="17"/>
+      <c r="AV35" s="17"/>
+      <c r="AW35" s="17"/>
+      <c r="AX35" s="17"/>
+      <c r="AY35" s="17"/>
+      <c r="AZ35" s="17"/>
+      <c r="BA35" s="17"/>
+      <c r="BB35" s="17"/>
+      <c r="BC35" s="17"/>
+      <c r="BD35" s="17"/>
+      <c r="BE35" s="17"/>
+      <c r="BF35" s="17"/>
+      <c r="BG35" s="17"/>
+      <c r="BH35" s="17"/>
+      <c r="BI35" s="17"/>
+      <c r="BJ35" s="17"/>
+      <c r="BK35" s="16"/>
+      <c r="BL35" s="16"/>
+      <c r="BM35" s="16"/>
+      <c r="BN35" s="16"/>
+      <c r="BO35" s="16"/>
+      <c r="BP35" s="25"/>
+      <c r="BQ35" s="25"/>
+      <c r="BR35" s="25"/>
+      <c r="BS35" s="25"/>
+      <c r="BT35" s="25"/>
+    </row>
+    <row r="36" spans="2:72" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="B36" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="14">
+        <v>44853</v>
+      </c>
+      <c r="F36" s="28">
+        <v>44881</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="17"/>
+      <c r="AO36" s="17"/>
+      <c r="AP36" s="17"/>
+      <c r="AQ36" s="17"/>
+      <c r="AR36" s="17"/>
+      <c r="AS36" s="17"/>
+      <c r="AT36" s="17"/>
+      <c r="AU36" s="17"/>
+      <c r="AV36" s="17"/>
+      <c r="AW36" s="17"/>
+      <c r="AX36" s="17"/>
+      <c r="AY36" s="17"/>
+      <c r="AZ36" s="17"/>
+      <c r="BA36" s="17"/>
+      <c r="BB36" s="17"/>
+      <c r="BC36" s="17"/>
+      <c r="BD36" s="17"/>
+      <c r="BE36" s="17"/>
+      <c r="BF36" s="17"/>
+      <c r="BG36" s="17"/>
+      <c r="BH36" s="17"/>
+      <c r="BI36" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ36" s="17"/>
+      <c r="BK36" s="16"/>
+      <c r="BL36" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BM36" s="16"/>
+      <c r="BN36" s="16"/>
+      <c r="BO36" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BP36" s="25"/>
+      <c r="BQ36" s="25"/>
+      <c r="BR36" s="25"/>
+      <c r="BS36" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="BT36" s="25"/>
+    </row>
+    <row r="37" spans="2:72" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="14">
+        <v>44853</v>
+      </c>
+      <c r="F37" s="28">
+        <v>44881</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="17"/>
+      <c r="AP37" s="17"/>
+      <c r="AQ37" s="17"/>
+      <c r="AR37" s="17"/>
+      <c r="AS37" s="17"/>
+      <c r="AT37" s="17"/>
+      <c r="AU37" s="17"/>
+      <c r="AV37" s="17"/>
+      <c r="AW37" s="17"/>
+      <c r="AX37" s="17"/>
+      <c r="AY37" s="17"/>
+      <c r="AZ37" s="17"/>
+      <c r="BA37" s="17"/>
+      <c r="BB37" s="17"/>
+      <c r="BC37" s="17"/>
+      <c r="BD37" s="17"/>
+      <c r="BE37" s="17"/>
+      <c r="BF37" s="17"/>
+      <c r="BG37" s="17"/>
+      <c r="BH37" s="17"/>
+      <c r="BI37" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ37" s="17"/>
+      <c r="BK37" s="16"/>
+      <c r="BL37" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BM37" s="16"/>
+      <c r="BN37" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BO37" s="16"/>
+      <c r="BP37" s="25"/>
+      <c r="BQ37" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="BR37" s="25"/>
+      <c r="BS37" s="25"/>
+      <c r="BT37" s="25"/>
+    </row>
+    <row r="38" spans="2:72" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="14">
+        <v>44889</v>
+      </c>
+      <c r="F38" s="28">
+        <v>44894</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1</v>
+      </c>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="17"/>
+      <c r="AM38" s="17"/>
+      <c r="AN38" s="17"/>
+      <c r="AO38" s="17"/>
+      <c r="AP38" s="17"/>
+      <c r="AQ38" s="17"/>
+      <c r="AR38" s="17"/>
+      <c r="AS38" s="17"/>
+      <c r="AT38" s="17"/>
+      <c r="AU38" s="17"/>
+      <c r="AV38" s="17"/>
+      <c r="AW38" s="17"/>
+      <c r="AX38" s="17"/>
+      <c r="AY38" s="17"/>
+      <c r="AZ38" s="17"/>
+      <c r="BA38" s="17"/>
+      <c r="BB38" s="17"/>
+      <c r="BC38" s="17"/>
+      <c r="BD38" s="17"/>
+      <c r="BE38" s="17"/>
+      <c r="BF38" s="17"/>
+      <c r="BG38" s="17"/>
+      <c r="BH38" s="17"/>
+      <c r="BI38" s="17"/>
+      <c r="BJ38" s="17"/>
+      <c r="BK38" s="16"/>
+      <c r="BL38" s="16"/>
+      <c r="BM38" s="16"/>
+      <c r="BN38" s="16"/>
+      <c r="BO38" s="16"/>
+      <c r="BP38" s="25"/>
+      <c r="BQ38" s="25"/>
+      <c r="BR38" s="25"/>
+      <c r="BS38" s="25"/>
+      <c r="BT38" s="25"/>
+    </row>
+    <row r="39" spans="2:72" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="14">
+        <v>44880</v>
+      </c>
+      <c r="F39" s="28">
+        <v>44880</v>
+      </c>
+      <c r="G39" s="15">
+        <v>1</v>
+      </c>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="17"/>
+      <c r="AJ39" s="17"/>
+      <c r="AK39" s="17"/>
+      <c r="AL39" s="17"/>
+      <c r="AM39" s="17"/>
+      <c r="AN39" s="17"/>
+      <c r="AO39" s="17"/>
+      <c r="AP39" s="17"/>
+      <c r="AQ39" s="17"/>
+      <c r="AR39" s="17"/>
+      <c r="AS39" s="17"/>
+      <c r="AT39" s="17"/>
+      <c r="AU39" s="17"/>
+      <c r="AV39" s="17"/>
+      <c r="AW39" s="17"/>
+      <c r="AX39" s="17"/>
+      <c r="AY39" s="17"/>
+      <c r="AZ39" s="17"/>
+      <c r="BA39" s="17"/>
+      <c r="BB39" s="17"/>
+      <c r="BC39" s="17"/>
+      <c r="BD39" s="17"/>
+      <c r="BE39" s="17"/>
+      <c r="BF39" s="17"/>
+      <c r="BG39" s="17"/>
+      <c r="BH39" s="17"/>
+      <c r="BI39" s="17"/>
+      <c r="BJ39" s="17"/>
+      <c r="BK39" s="16"/>
+      <c r="BL39" s="16"/>
+      <c r="BM39" s="16"/>
+      <c r="BN39" s="16"/>
+      <c r="BO39" s="16"/>
+      <c r="BP39" s="25"/>
+      <c r="BQ39" s="25"/>
+      <c r="BR39" s="25"/>
+      <c r="BS39" s="25"/>
+      <c r="BT39" s="25"/>
+    </row>
+    <row r="40" spans="2:72" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="14">
+        <v>44870</v>
+      </c>
+      <c r="F40" s="28">
+        <v>44871</v>
+      </c>
+      <c r="G40" s="15">
+        <v>1</v>
+      </c>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="17"/>
+      <c r="AJ40" s="17"/>
+      <c r="AK40" s="17"/>
+      <c r="AL40" s="17"/>
+      <c r="AM40" s="17"/>
+      <c r="AN40" s="17"/>
+      <c r="AO40" s="17"/>
+      <c r="AP40" s="17"/>
+      <c r="AQ40" s="17"/>
+      <c r="AR40" s="17"/>
+      <c r="AS40" s="17"/>
+      <c r="AT40" s="17"/>
+      <c r="AU40" s="17"/>
+      <c r="AV40" s="17"/>
+      <c r="AW40" s="17"/>
+      <c r="AX40" s="17"/>
+      <c r="AY40" s="17"/>
+      <c r="AZ40" s="17"/>
+      <c r="BA40" s="17"/>
+      <c r="BB40" s="17"/>
+      <c r="BC40" s="17"/>
+      <c r="BD40" s="17"/>
+      <c r="BE40" s="17"/>
+      <c r="BF40" s="17"/>
+      <c r="BG40" s="17"/>
+      <c r="BH40" s="17"/>
+      <c r="BI40" s="17"/>
+      <c r="BJ40" s="17"/>
+      <c r="BK40" s="16"/>
+      <c r="BL40" s="16"/>
+      <c r="BM40" s="16"/>
+      <c r="BN40" s="16"/>
+      <c r="BO40" s="16"/>
+      <c r="BP40" s="25"/>
+      <c r="BQ40" s="25"/>
+      <c r="BR40" s="25"/>
+      <c r="BS40" s="25"/>
+      <c r="BT40" s="25"/>
+    </row>
+    <row r="41" spans="2:72" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="14">
+        <v>44853</v>
+      </c>
+      <c r="F41" s="28">
+        <v>44881</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0</v>
+      </c>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="17"/>
+      <c r="AJ41" s="17"/>
+      <c r="AK41" s="17"/>
+      <c r="AL41" s="17"/>
+      <c r="AM41" s="17"/>
+      <c r="AN41" s="17"/>
+      <c r="AO41" s="17"/>
+      <c r="AP41" s="17"/>
+      <c r="AQ41" s="17"/>
+      <c r="AR41" s="17"/>
+      <c r="AS41" s="17"/>
+      <c r="AT41" s="17"/>
+      <c r="AU41" s="17"/>
+      <c r="AV41" s="17"/>
+      <c r="AW41" s="17"/>
+      <c r="AX41" s="17"/>
+      <c r="AY41" s="17"/>
+      <c r="AZ41" s="17"/>
+      <c r="BA41" s="17"/>
+      <c r="BB41" s="17"/>
+      <c r="BC41" s="17"/>
+      <c r="BD41" s="17"/>
+      <c r="BE41" s="17"/>
+      <c r="BF41" s="17"/>
+      <c r="BG41" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BH41" s="17"/>
+      <c r="BI41" s="17"/>
+      <c r="BJ41" s="17"/>
+      <c r="BK41" s="16"/>
+      <c r="BL41" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BM41" s="16"/>
+      <c r="BN41" s="16"/>
+      <c r="BO41" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BP41" s="25"/>
+      <c r="BQ41" s="25"/>
+      <c r="BR41" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="BS41" s="25"/>
+      <c r="BT41" s="25"/>
+    </row>
+    <row r="42" spans="2:72" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="14">
+        <v>44853</v>
+      </c>
+      <c r="F42" s="28">
+        <v>44881</v>
+      </c>
+      <c r="G42" s="15">
+        <v>1</v>
+      </c>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="17"/>
+      <c r="AJ42" s="17"/>
+      <c r="AK42" s="17"/>
+      <c r="AL42" s="17"/>
+      <c r="AM42" s="17"/>
+      <c r="AN42" s="17"/>
+      <c r="AO42" s="17"/>
+      <c r="AP42" s="17"/>
+      <c r="AQ42" s="17"/>
+      <c r="AR42" s="17"/>
+      <c r="AS42" s="17"/>
+      <c r="AT42" s="17"/>
+      <c r="AU42" s="17"/>
+      <c r="AV42" s="17"/>
+      <c r="AW42" s="17"/>
+      <c r="AX42" s="17"/>
+      <c r="AY42" s="17"/>
+      <c r="AZ42" s="17"/>
+      <c r="BA42" s="17"/>
+      <c r="BB42" s="17"/>
+      <c r="BC42" s="17"/>
+      <c r="BD42" s="17"/>
+      <c r="BE42" s="17"/>
+      <c r="BF42" s="17"/>
+      <c r="BG42" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BH42" s="17"/>
+      <c r="BI42" s="17"/>
+      <c r="BJ42" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BK42" s="16"/>
+      <c r="BL42" s="16"/>
+      <c r="BM42" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BN42" s="16"/>
+      <c r="BO42" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BP42" s="25"/>
+      <c r="BQ42" s="25"/>
+      <c r="BR42" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="BS42" s="25"/>
+      <c r="BT42" s="25"/>
+    </row>
+    <row r="43" spans="2:72" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="B43" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="14">
+        <v>44853</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0</v>
+      </c>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="17"/>
+      <c r="AH43" s="17"/>
+      <c r="AI43" s="17"/>
+      <c r="AJ43" s="17"/>
+      <c r="AK43" s="17"/>
+      <c r="AL43" s="17"/>
+      <c r="AM43" s="17"/>
+      <c r="AN43" s="17"/>
+      <c r="AO43" s="17"/>
+      <c r="AP43" s="17"/>
+      <c r="AQ43" s="17"/>
+      <c r="AR43" s="17"/>
+      <c r="AS43" s="17"/>
+      <c r="AT43" s="17"/>
+      <c r="AU43" s="17"/>
+      <c r="AV43" s="17"/>
+      <c r="AW43" s="17"/>
+      <c r="AX43" s="17"/>
+      <c r="AY43" s="17"/>
+      <c r="AZ43" s="17"/>
+      <c r="BA43" s="17"/>
+      <c r="BB43" s="17"/>
+      <c r="BC43" s="17"/>
+      <c r="BD43" s="17"/>
+      <c r="BE43" s="17"/>
+      <c r="BF43" s="17"/>
+      <c r="BG43" s="17"/>
+      <c r="BH43" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI43" s="17"/>
+      <c r="BJ43" s="17"/>
+      <c r="BK43" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL43" s="16"/>
+      <c r="BM43" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BN43" s="16"/>
+      <c r="BO43" s="16"/>
+      <c r="BP43" s="25"/>
+      <c r="BQ43" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="BR43" s="25"/>
+      <c r="BS43" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="BT43" s="25"/>
+    </row>
+    <row r="44" spans="2:72" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="B44" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="14">
+        <v>44853</v>
+      </c>
+      <c r="F44" s="28">
+        <v>44881</v>
+      </c>
+      <c r="G44" s="15">
+        <v>0</v>
+      </c>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="17"/>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="17"/>
+      <c r="AH44" s="17"/>
+      <c r="AI44" s="17"/>
+      <c r="AJ44" s="17"/>
+      <c r="AK44" s="17"/>
+      <c r="AL44" s="17"/>
+      <c r="AM44" s="17"/>
+      <c r="AN44" s="17"/>
+      <c r="AO44" s="17"/>
+      <c r="AP44" s="17"/>
+      <c r="AQ44" s="17"/>
+      <c r="AR44" s="17"/>
+      <c r="AS44" s="17"/>
+      <c r="AT44" s="17"/>
+      <c r="AU44" s="17"/>
+      <c r="AV44" s="17"/>
+      <c r="AW44" s="17"/>
+      <c r="AX44" s="17"/>
+      <c r="AY44" s="17"/>
+      <c r="AZ44" s="17"/>
+      <c r="BA44" s="17"/>
+      <c r="BB44" s="17"/>
+      <c r="BC44" s="17"/>
+      <c r="BD44" s="17"/>
+      <c r="BE44" s="17"/>
+      <c r="BF44" s="17"/>
+      <c r="BG44" s="17"/>
+      <c r="BH44" s="17"/>
+      <c r="BI44" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ44" s="17"/>
+      <c r="BK44" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL44" s="16"/>
+      <c r="BM44" s="16"/>
+      <c r="BN44" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BO44" s="16"/>
+      <c r="BP44" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ44" s="25"/>
+      <c r="BR44" s="25"/>
+      <c r="BS44" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="BT44" s="25"/>
+    </row>
+    <row r="45" spans="2:72" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="B45" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="14">
+        <v>44853</v>
+      </c>
+      <c r="F45" s="28">
+        <v>44881</v>
+      </c>
+      <c r="G45" s="15">
+        <v>0</v>
+      </c>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="17"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="17"/>
+      <c r="AG45" s="17"/>
+      <c r="AH45" s="17"/>
+      <c r="AI45" s="17"/>
+      <c r="AJ45" s="17"/>
+      <c r="AK45" s="17"/>
+      <c r="AL45" s="17"/>
+      <c r="AM45" s="17"/>
+      <c r="AN45" s="17"/>
+      <c r="AO45" s="17"/>
+      <c r="AP45" s="17"/>
+      <c r="AQ45" s="17"/>
+      <c r="AR45" s="17"/>
+      <c r="AS45" s="17"/>
+      <c r="AT45" s="17"/>
+      <c r="AU45" s="17"/>
+      <c r="AV45" s="17"/>
+      <c r="AW45" s="17"/>
+      <c r="AX45" s="17"/>
+      <c r="AY45" s="17"/>
+      <c r="AZ45" s="17"/>
+      <c r="BA45" s="17"/>
+      <c r="BB45" s="17"/>
+      <c r="BC45" s="17"/>
+      <c r="BD45" s="17"/>
+      <c r="BE45" s="17"/>
+      <c r="BF45" s="17"/>
+      <c r="BG45" s="17"/>
+      <c r="BH45" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BI45" s="17"/>
+      <c r="BJ45" s="17"/>
+      <c r="BK45" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL45" s="16"/>
+      <c r="BM45" s="16"/>
+      <c r="BN45" s="16"/>
+      <c r="BO45" s="16"/>
+      <c r="BP45" s="25"/>
+      <c r="BQ45" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="BR45" s="25"/>
+      <c r="BS45" s="25"/>
+      <c r="BT45" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:72" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" s="14">
+        <v>44853</v>
+      </c>
+      <c r="F46" s="28">
+        <v>44881</v>
+      </c>
+      <c r="G46" s="15">
+        <v>1</v>
+      </c>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="17"/>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="17"/>
+      <c r="AJ46" s="17"/>
+      <c r="AK46" s="17"/>
+      <c r="AL46" s="17"/>
+      <c r="AM46" s="17"/>
+      <c r="AN46" s="17"/>
+      <c r="AO46" s="17"/>
+      <c r="AP46" s="17"/>
+      <c r="AQ46" s="17"/>
+      <c r="AR46" s="17"/>
+      <c r="AS46" s="17"/>
+      <c r="AT46" s="17"/>
+      <c r="AU46" s="17"/>
+      <c r="AV46" s="17"/>
+      <c r="AW46" s="17"/>
+      <c r="AX46" s="17"/>
+      <c r="AY46" s="17"/>
+      <c r="AZ46" s="17"/>
+      <c r="BA46" s="17"/>
+      <c r="BB46" s="17"/>
+      <c r="BC46" s="17"/>
+      <c r="BD46" s="17"/>
+      <c r="BE46" s="17"/>
+      <c r="BF46" s="17"/>
+      <c r="BG46" s="17"/>
+      <c r="BH46" s="17"/>
+      <c r="BI46" s="17"/>
+      <c r="BJ46" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BK46" s="16"/>
+      <c r="BL46" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BM46" s="16"/>
+      <c r="BN46" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BO46" s="16"/>
+      <c r="BP46" s="25"/>
+      <c r="BQ46" s="25"/>
+      <c r="BR46" s="25"/>
+      <c r="BS46" s="25"/>
+      <c r="BT46" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="2:72" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="B47" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="14">
+        <v>44853</v>
+      </c>
+      <c r="F47" s="28">
+        <v>44881</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="17"/>
+      <c r="AD47" s="17"/>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="17"/>
+      <c r="AG47" s="17"/>
+      <c r="AH47" s="17"/>
+      <c r="AI47" s="17"/>
+      <c r="AJ47" s="17"/>
+      <c r="AK47" s="17"/>
+      <c r="AL47" s="17"/>
+      <c r="AM47" s="17"/>
+      <c r="AN47" s="17"/>
+      <c r="AO47" s="17"/>
+      <c r="AP47" s="17"/>
+      <c r="AQ47" s="17"/>
+      <c r="AR47" s="17"/>
+      <c r="AS47" s="17"/>
+      <c r="AT47" s="17"/>
+      <c r="AU47" s="17"/>
+      <c r="AV47" s="17"/>
+      <c r="AW47" s="17"/>
+      <c r="AX47" s="17"/>
+      <c r="AY47" s="17"/>
+      <c r="AZ47" s="17"/>
+      <c r="BA47" s="17"/>
+      <c r="BB47" s="17"/>
+      <c r="BC47" s="17"/>
+      <c r="BD47" s="17"/>
+      <c r="BE47" s="17"/>
+      <c r="BF47" s="17"/>
+      <c r="BG47" s="17"/>
+      <c r="BH47" s="17"/>
+      <c r="BI47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ47" s="17"/>
+      <c r="BK47" s="16"/>
+      <c r="BL47" s="16"/>
+      <c r="BM47" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BN47" s="16"/>
+      <c r="BO47" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BP47" s="25"/>
+      <c r="BQ47" s="25"/>
+      <c r="BR47" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="BS47" s="25"/>
+      <c r="BT47" s="25" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9772,8 +11793,8 @@
     <mergeCell ref="BP5:BT5"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="G8:G25">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="G8:G47">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -9804,7 +11825,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G8:G25</xm:sqref>
+          <xm:sqref>G8:G47</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9819,10 +11840,10 @@
   </sheetPr>
   <dimension ref="A1:BT10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BT1" sqref="BT1"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9832,7 +11853,7 @@
     <col min="3" max="3" width="53.19921875" customWidth="1"/>
     <col min="4" max="4" width="22.69921875" customWidth="1"/>
     <col min="5" max="6" width="9.8984375" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="49" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="48" customWidth="1"/>
     <col min="8" max="67" width="3.19921875" customWidth="1"/>
     <col min="68" max="68" width="3.3984375" customWidth="1"/>
     <col min="69" max="72" width="2.69921875" customWidth="1"/>
@@ -10542,14 +12563,14 @@
       <c r="D8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="50">
         <v>44871</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="50">
         <v>44877</v>
       </c>
-      <c r="G8" s="48">
-        <v>0</v>
+      <c r="G8" s="15">
+        <v>0.5</v>
       </c>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
@@ -10630,16 +12651,16 @@
         <v>153</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="82">
+        <v>218</v>
+      </c>
+      <c r="E9" s="50">
         <v>44871</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="50">
         <v>44877</v>
       </c>
-      <c r="G9" s="48">
-        <v>0</v>
+      <c r="G9" s="15">
+        <v>1</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
@@ -10719,16 +12740,16 @@
         <v>154</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="82">
+        <v>218</v>
+      </c>
+      <c r="E10" s="50">
         <v>44871</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F10" s="50">
         <v>44877</v>
       </c>
-      <c r="G10" s="48">
-        <v>0</v>
+      <c r="G10" s="15">
+        <v>1</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
@@ -10829,8 +12850,8 @@
     <mergeCell ref="BP5:BT5"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="G8:G10">
-    <cfRule type="dataBar" priority="11">
+  <conditionalFormatting sqref="G8:G9">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -10838,7 +12859,21 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5BDB748B-3247-4FDA-A6E0-60CE097FE4E8}</x14:id>
+          <x14:id>{7B42A309-3E2E-4287-A9A3-01EE3EDFBA24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="3" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{943D51D9-1845-4288-9DD8-8B355F929454}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10849,7 +12884,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5BDB748B-3247-4FDA-A6E0-60CE097FE4E8}">
+          <x14:cfRule type="dataBar" id="{7B42A309-3E2E-4287-A9A3-01EE3EDFBA24}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10861,7 +12896,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G8:G10</xm:sqref>
+          <xm:sqref>G8:G9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{943D51D9-1845-4288-9DD8-8B355F929454}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor theme="0"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G10</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10876,10 +12926,10 @@
   </sheetPr>
   <dimension ref="A1:BT13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BT1" sqref="BT1"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11688,7 +13738,7 @@
         <v>44881</v>
       </c>
       <c r="G9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
@@ -11772,7 +13822,7 @@
         <v>44881</v>
       </c>
       <c r="G10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
@@ -11856,7 +13906,7 @@
         <v>44881</v>
       </c>
       <c r="G11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
@@ -11939,7 +13989,7 @@
         <v>44881</v>
       </c>
       <c r="G12" s="15">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
@@ -12160,21 +14210,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E112E2F021A03F4A94B1D253314737A3" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c5a2478a1666fb6ea5e8d264d335e2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c5150626-be14-44f7-a9aa-6675d37c98c4" xmlns:ns4="a2a02274-8187-46c2-8f0e-f11b0b1694ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd24a1611fa19af77d4ba1b0de6afdf9" ns3:_="" ns4:_="">
     <xsd:import namespace="c5150626-be14-44f7-a9aa-6675d37c98c4"/>
@@ -12389,32 +14424,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2647A677-E7D0-4F58-982D-619F0F9803D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B9FDC8B-4332-4F1B-A229-95C846A46A80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c5150626-be14-44f7-a9aa-6675d37c98c4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a2a02274-8187-46c2-8f0e-f11b0b1694ec"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D71D63ED-2216-4542-81CB-B60B8B1BE55C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12431,4 +14456,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2647A677-E7D0-4F58-982D-619F0F9803D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B9FDC8B-4332-4F1B-A229-95C846A46A80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c5150626-be14-44f7-a9aa-6675d37c98c4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a2a02274-8187-46c2-8f0e-f11b0b1694ec"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>